--- a/격투,추리,월드맵 사운드 리소스/사운드 정책(격투, 추리, 월드맵).xlsx
+++ b/격투,추리,월드맵 사운드 리소스/사운드 정책(격투, 추리, 월드맵).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>BGM 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <t>02.Notclick</t>
   </si>
   <si>
-    <t>월드맵에서 우측 UI 버튼 누를 때 나는 클릭소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월드맵에서 우측 UI 버튼 누를 때 선택할 수 없는 상황에서 나는 소리(클릭 불가 때)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,14 @@
   </si>
   <si>
     <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 나는 클릭소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 선택할 수 없는 상황에서 나는 소리(클릭 불가 때)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -474,65 +478,65 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/격투,추리,월드맵 사운드 리소스/사운드 정책(격투, 추리, 월드맵).xlsx
+++ b/격투,추리,월드맵 사운드 리소스/사운드 정책(격투, 추리, 월드맵).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>BGM 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,83 +43,79 @@
     <t>02.Notclick</t>
   </si>
   <si>
-    <t>월드맵에서 우측 UI 버튼 누를 때 선택할 수 없는 상황에서 나는 소리(클릭 불가 때)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월드맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>격투 모드 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.Attack2</t>
+  </si>
+  <si>
+    <t>03.Tentacle_Flop_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투모드에서 죽었을때(플레이어, 몬스터 동일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투모드에서 공격할때(빨간 이펙트 뜰때) (플레이어, 몬스터 동일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.White_Hats(reasoning)</t>
+  </si>
+  <si>
+    <t>추리모드 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.Impact_Moderato(worldmap)</t>
+  </si>
+  <si>
+    <t>월드맵 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 나는 클릭소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 선택할 수 없는 상황에서 나는 소리(클릭 불가 때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>03.Biggie(battle)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 모드 BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.Attack2</t>
-  </si>
-  <si>
-    <t>03.Tentacle_Flop_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투모드에서 죽었을때(플레이어, 몬스터 동일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투모드에서 공격할때(빨간 이펙트 뜰때) (플레이어, 몬스터 동일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.White_Hats(reasoning)</t>
-  </si>
-  <si>
-    <t>추리모드 BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.Impact_Moderato(worldmap)</t>
-  </si>
-  <si>
-    <t>월드맵 BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 나는 클릭소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 버튼과 월드맵에서 우측 UI 버튼 누를 때 선택할 수 없는 상황에서 나는 소리(클릭 불가 때)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +437,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -478,65 +474,65 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
